--- a/biology/Botanique/Gymnostoma/Gymnostoma.xlsx
+++ b/biology/Botanique/Gymnostoma/Gymnostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnostoma est un genre d'arbres de la famille des Casuarinacées dont huit espèces sont endémiques de Nouvelle-Calédonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour l'ensemble des Casuarinacées, les arbres du genre Gymnostoma possèdent des racines à nodules fixateurs d'azote dont la bactérie est du genre Frankia.
 Les rameaux sont verts, grêles et articulés.
@@ -546,7 +560,9 @@
           <t>Espèces recensées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>18 espèces sont actuellement recensées dont les 15 suivantes :
 Gymnostoma australianum L.A.S.Johnson
@@ -591,9 +607,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est trouvé au Nord-Est de l'Australie, en Malaisie, à Sumatra, à Bornéo, aux Célèbes, aux Philippines, aux Moluques, en Nouvelle-Guinée, en Nouvelle-Irlande, en Nouvelle-Bretagne, aux îles Salomon, en Nouvelle-Calédonie et aux Fidji[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est trouvé au Nord-Est de l'Australie, en Malaisie, à Sumatra, à Bornéo, aux Célèbes, aux Philippines, aux Moluques, en Nouvelle-Guinée, en Nouvelle-Irlande, en Nouvelle-Bretagne, aux îles Salomon, en Nouvelle-Calédonie et aux Fidji.
 Huit espèces sont endémiques de la Nouvelle-Calédonie : Gymnostoma chamaecyparis, Gymnostoma deplancheanum, Gymnostoma glaucescens, Gymnostoma intermedium, Gymnostoma leucodon, Gymnostoma poissonianum et Gymnostoma webbianum.
 ↑ Evolution of the Casuarinaceae: Morphological Comparisons of Some Extant Species, by David L. Dilcher, David C. Christophel, Harry Omroa Bhagwandin, Jr. and Leonie J. Scriven - 1990 -  Botanical Society of America. American Journal of Botany p.338.
 </t>
